--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2898972.550340753</v>
+        <v>3004839.663972002</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7077175.529411623</v>
+        <v>5851605.615330304</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865793.850046256</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6154294.736999437</v>
+        <v>6428244.121881662</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1527797502169</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>390.1527797502169</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>328.1229395778201</v>
       </c>
       <c r="E2" t="n">
-        <v>390.1527797502169</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>119.169767020087</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -786,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>70.60839291403994</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.1769805884549</v>
+        <v>29.97154776676477</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.5629317501621</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>390.1527797502169</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>390.1527797502169</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>74.005365717641</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.11773985127014</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -1032,13 +1034,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368968</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1060,10 +1062,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>48.89522372568715</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.273497641932</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>34.32782427562248</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>384.8774717948093</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>110.6199347530832</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>78.55689759134484</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815331</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019342</v>
@@ -1388,7 +1390,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>87.60246912073902</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1436,7 +1438,7 @@
         <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>56.72514580316172</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>250.471224252999</v>
@@ -1594,7 +1596,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.15083497908356</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>164.1628358541595</v>
+        <v>375.1420595397592</v>
       </c>
       <c r="H14" t="n">
         <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
         <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V14" t="n">
         <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>37.49393392041867</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>250.471224252999</v>
@@ -1828,7 +1830,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>106.648815553838</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1862,7 +1864,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2059,13 +2061,13 @@
         <v>250.471224252999</v>
       </c>
       <c r="V19" t="n">
-        <v>189.086398529838</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>180.4209367886185</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2099,7 +2101,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>49.56236697288521</v>
       </c>
       <c r="C22" t="n">
-        <v>33.12209635668191</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2330,13 +2332,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397592</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
         <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.7622202500688</v>
+        <v>49.56236697288521</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2567,13 +2569,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397591</v>
       </c>
       <c r="H26" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
         <v>190.4854774862718</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.04510745646595</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -2770,13 +2772,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>169.9705708517164</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2810,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
         <v>190.4854774862718</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>59.64309870642131</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>181.1615460494245</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
@@ -3032,22 +3034,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E32" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975962</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T32" t="n">
         <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>61.04510745646543</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>1.552349811578572</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
         <v>246.7800261198764</v>
@@ -3253,7 +3255,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415064</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535244</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995111</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.300470672221</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975942</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727502</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862716</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967468</v>
       </c>
       <c r="V35" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298449</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263988</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950526</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875625</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>54.9210494150162</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125507</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>200.6202780835314</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835351</v>
       </c>
       <c r="W37" t="n">
-        <v>104.6291194039111</v>
+        <v>246.7800261198762</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.61854251487944</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -3721,7 +3723,7 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>125.9103462479684</v>
       </c>
       <c r="X40" t="n">
         <v>206.4614817925755</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>182.1412945836353</v>
       </c>
       <c r="H41" t="n">
-        <v>77.80449399195024</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>150.017702083318</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.913542846909213</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.22097525265094</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>40.9968114461682</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4189,16 +4191,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>64.97216884135977</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1031.236326875557</v>
+        <v>1298.098156350603</v>
       </c>
       <c r="C2" t="n">
-        <v>637.1426099561463</v>
+        <v>1292.013969704277</v>
       </c>
       <c r="D2" t="n">
-        <v>636.7190840896109</v>
+        <v>960.5766569994082</v>
       </c>
       <c r="E2" t="n">
-        <v>242.6253671701999</v>
+        <v>546.2364415163049</v>
       </c>
       <c r="F2" t="n">
-        <v>122.251865129708</v>
+        <v>125.2060294699925</v>
       </c>
       <c r="G2" t="n">
-        <v>117.5639850629442</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="J2" t="n">
-        <v>285.3976938477716</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004863</v>
+        <v>541.5402578923297</v>
       </c>
       <c r="L2" t="n">
-        <v>671.6489458004863</v>
+        <v>964.349293556065</v>
       </c>
       <c r="M2" t="n">
-        <v>671.6489458004863</v>
+        <v>964.349293556065</v>
       </c>
       <c r="N2" t="n">
-        <v>671.6489458004863</v>
+        <v>1387.1583292198</v>
       </c>
       <c r="O2" t="n">
-        <v>1057.900197753201</v>
+        <v>1387.1583292198</v>
       </c>
       <c r="P2" t="n">
-        <v>1198.893466516011</v>
+        <v>1387.1583292198</v>
       </c>
       <c r="Q2" t="n">
-        <v>1520.054473311303</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="S2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="T2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="U2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="V2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="W2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="X2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1425.330043794968</v>
+        <v>1708.319336015092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>232.6523037500069</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>54.91497810006167</v>
       </c>
       <c r="I3" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="J3" t="n">
-        <v>224.0250799426506</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>610.2763318953653</v>
+        <v>649.7882799466704</v>
       </c>
       <c r="L3" t="n">
-        <v>996.52758384808</v>
+        <v>935.6658356673738</v>
       </c>
       <c r="M3" t="n">
-        <v>996.52758384808</v>
+        <v>1358.474871331109</v>
       </c>
       <c r="N3" t="n">
-        <v>996.52758384808</v>
+        <v>1358.474871331109</v>
       </c>
       <c r="O3" t="n">
-        <v>1382.778835800795</v>
+        <v>1358.474871331109</v>
       </c>
       <c r="P3" t="n">
-        <v>1382.778835800795</v>
+        <v>1358.474871331109</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1636.997727011012</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1636.997727011012</v>
       </c>
       <c r="U3" t="n">
-        <v>1293.279245302185</v>
+        <v>1439.64691614923</v>
       </c>
       <c r="V3" t="n">
-        <v>1293.279245302185</v>
+        <v>1225.935389142264</v>
       </c>
       <c r="W3" t="n">
-        <v>1186.074038399415</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="X3" t="n">
-        <v>1009.748056538308</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.3460969021384</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.5997460790038</v>
+        <v>64.44067739380162</v>
       </c>
       <c r="C4" t="n">
-        <v>766.5997460790038</v>
+        <v>64.44067739380162</v>
       </c>
       <c r="D4" t="n">
-        <v>766.5997460790038</v>
+        <v>64.44067739380162</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522802</v>
+        <v>48.24893612551237</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074661</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.84703862227</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1289.407648948744</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198357</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000868</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1288.946632556178</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1049.39789353288</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>766.5997460790038</v>
+        <v>769.5539104192883</v>
       </c>
       <c r="V4" t="n">
-        <v>766.5997460790038</v>
+        <v>769.5539104192883</v>
       </c>
       <c r="W4" t="n">
-        <v>766.5997460790038</v>
+        <v>490.4842459281626</v>
       </c>
       <c r="X4" t="n">
-        <v>766.5997460790038</v>
+        <v>252.140383787846</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.5997460790038</v>
+        <v>252.140383787846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>830.5952487984645</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>824.5110621521386</v>
+        <v>1671.948915169287</v>
       </c>
       <c r="D5" t="n">
-        <v>824.0875362856032</v>
+        <v>1267.484985262347</v>
       </c>
       <c r="E5" t="n">
-        <v>429.9938193661921</v>
+        <v>853.1447697792441</v>
       </c>
       <c r="F5" t="n">
-        <v>35.9001024467811</v>
+        <v>836.1547617733357</v>
       </c>
       <c r="G5" t="n">
-        <v>31.21222238001735</v>
+        <v>427.4264776661679</v>
       </c>
       <c r="H5" t="n">
-        <v>31.21222238001735</v>
+        <v>116.5179802938859</v>
       </c>
       <c r="I5" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>417.4634743327321</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>417.4634743327321</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M5" t="n">
-        <v>803.7147262854468</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="N5" t="n">
-        <v>1189.965978238161</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O5" t="n">
-        <v>1520.054473311303</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1166.517402081457</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7080267240611</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>417.4634743327321</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>417.4634743327321</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>803.7147262854468</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.965978238161</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1095.928434440403</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>882.6952661767319</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>882.6952661767319</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>723.293306540562</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>803.6882264121539</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>632.5948539738704</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>473.1002092967805</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>312.1893941650999</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1374.219350880778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1374.219350880778</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1091.421203426902</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1091.421203426902</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1042.03208855247</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>803.6882264121539</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y7" t="n">
-        <v>803.6882264121539</v>
+        <v>372.3531027449756</v>
       </c>
     </row>
     <row r="8">
@@ -4784,13 +4786,13 @@
         <v>882.247119092317</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4808,46 +4810,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>176.0078249962696</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
-        <v>692.8507596625949</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.092152245686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1295.448754414638</v>
+        <v>1699.489158455042</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>158.3214934345131</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M9" t="n">
-        <v>675.1644281008383</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N9" t="n">
-        <v>675.1644281008383</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>779.8647105585317</v>
+        <v>538.4003990889748</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7713381202482</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D10" t="n">
-        <v>449.2766934431582</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E10" t="n">
-        <v>288.3658783114777</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F10" t="n">
-        <v>288.3658783114777</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>121.1154872370211</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>121.1154872370211</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V10" t="n">
-        <v>1297.278237189974</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W10" t="n">
-        <v>1018.208572698848</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X10" t="n">
-        <v>779.8647105585317</v>
+        <v>650.137706920372</v>
       </c>
       <c r="Y10" t="n">
-        <v>779.8647105585317</v>
+        <v>650.137706920372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.353335316782</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.353335316782</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1559.686316244528</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1175.14301159611</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>783.909510384482</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G11" t="n">
-        <v>404.978137111999</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
-        <v>123.8665505744019</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>67.31169872615996</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>605.4711998351995</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1318.062599647438</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2094.381190639192</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2721.954079890893</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3365.584936307998</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3365.584936307998</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3365.584936307998</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3365.584936307998</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3260.100771936784</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>3067.691198718327</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>2979.203856172126</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>2659.163212343291</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>2305.199822313145</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>1934.353335316782</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>1934.353335316782</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>746.1425406126943</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>612.14746936164</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>495.2503115810324</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>374.7574955733604</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>265.797615755865</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>158.8075030702037</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>88.06029010591979</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>728.3998706454482</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1561.382142381678</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1734.396910530047</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1734.396910530047</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1734.396910530047</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2084.24137521403</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2005.810884690969</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1846.469020877977</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1649.118210016196</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1435.40668300923</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1222.173514745558</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1045.847532884451</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>886.445573248281</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>335.8790832629273</v>
+        <v>494.3549844251427</v>
       </c>
       <c r="C13" t="n">
-        <v>335.8790832629273</v>
+        <v>494.3549844251427</v>
       </c>
       <c r="D13" t="n">
-        <v>335.8790832629273</v>
+        <v>494.3549844251427</v>
       </c>
       <c r="E13" t="n">
-        <v>204.7651789659317</v>
+        <v>494.3549844251427</v>
       </c>
       <c r="F13" t="n">
-        <v>204.7651789659317</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="G13" t="n">
-        <v>67.31169872615996</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>67.31169872615996</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>110.5982004404452</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>294.3544804717578</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>583.455533060893</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M13" t="n">
-        <v>901.923541810461</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N13" t="n">
-        <v>1211.966276513786</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1500.730839149335</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
-        <v>1735.610231708022</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>1830.342213819607</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1830.342213819607</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1673.747356534202</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T13" t="n">
-        <v>1463.995528345589</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.994291726398</v>
+        <v>1391.202311389559</v>
       </c>
       <c r="V13" t="n">
-        <v>966.9054575006053</v>
+        <v>1147.113477163766</v>
       </c>
       <c r="W13" t="n">
-        <v>717.6327038441646</v>
+        <v>897.8407235073248</v>
       </c>
       <c r="X13" t="n">
-        <v>509.0857525385328</v>
+        <v>689.2937722016931</v>
       </c>
       <c r="Y13" t="n">
-        <v>493.7818788222868</v>
+        <v>494.3549844251427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2101.570688213677</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1721.243008361632</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1346.575989289378</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
-        <v>962.0326846409594</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>570.7991834293318</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>404.978137111999</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
-        <v>123.8665505744019</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>321.4971701939143</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>859.6566713029538</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.248071115192</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2348.566662106946</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3101.747678745564</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3101.747678745564</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3101.747678745564</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3365.584936307998</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3365.584936307998</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3365.584936307998</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>3173.175363089541</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>3173.175363089541</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>2853.134719260707</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>2853.134719260707</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>2853.134719260707</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2481.994957043482</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>746.1425406126943</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>612.14746936164</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>495.2503115810324</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>374.7574955733604</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>265.797615755865</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>158.8075030702037</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>88.06029010591979</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>260.1245562887932</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>260.1245562887932</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>576.8615322945363</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1409.843804030766</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N15" t="n">
-        <v>1409.843804030766</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2005.810884690969</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1846.469020877977</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1649.118210016196</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1435.40668300923</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1222.173514745558</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1045.847532884451</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>886.445573248281</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>328.1233368655606</v>
+        <v>440.8998387150689</v>
       </c>
       <c r="C16" t="n">
-        <v>328.1233368655606</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="D16" t="n">
-        <v>198.4256030231556</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="E16" t="n">
-        <v>67.31169872615996</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F16" t="n">
-        <v>67.31169872615996</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G16" t="n">
-        <v>67.31169872615996</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H16" t="n">
-        <v>67.31169872615996</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
-        <v>67.31169872615996</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>110.5982004404452</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
-        <v>294.3544804717578</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>583.455533060893</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M16" t="n">
-        <v>901.923541810461</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N16" t="n">
-        <v>1211.966276513786</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1500.730839149335</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
-        <v>1735.610231708022</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1830.342213819607</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1830.342213819607</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1673.747356534202</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1635.874696008527</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U16" t="n">
-        <v>1382.873459389336</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.784625163543</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W16" t="n">
-        <v>889.5118715071022</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X16" t="n">
-        <v>680.9649202014705</v>
+        <v>635.8386264916193</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.0261324249201</v>
+        <v>440.8998387150689</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I17" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5528,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5537,28 +5539,28 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5585,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.24369769062278</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.24369769062278</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.467481689963</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.7928327516117</v>
+        <v>310.9067370486074</v>
       </c>
       <c r="C19" t="n">
-        <v>179.7928327516117</v>
+        <v>310.9067370486074</v>
       </c>
       <c r="D19" t="n">
-        <v>179.7928327516117</v>
+        <v>310.9067370486074</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516117</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
         <v>136.530199404908</v>
@@ -5707,16 +5709,16 @@
         <v>1181.450483200946</v>
       </c>
       <c r="V19" t="n">
-        <v>990.4541210495942</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W19" t="n">
-        <v>741.1813673931534</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X19" t="n">
-        <v>532.6344160875217</v>
+        <v>505.8455248251578</v>
       </c>
       <c r="Y19" t="n">
-        <v>337.6956283109712</v>
+        <v>310.9067370486074</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5734,70 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388647</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.588670267415</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079653</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T20" t="n">
         <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176682</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5820,34 +5822,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H21" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="L21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.182536368609</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.7003606771702</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J22" t="n">
         <v>136.530199404908</v>
@@ -5914,10 +5916,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478249</v>
@@ -5966,22 +5968,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G23" t="n">
         <v>430.9101360764619</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6020,19 +6022,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.7928327516117</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6206,16 +6208,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764622</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6224,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6239,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6251,22 +6253,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035666</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176685</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180322</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
         <v>2721.037282963096</v>
@@ -6309,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.5514964631899</v>
+        <v>222.9414315330279</v>
       </c>
       <c r="C28" t="n">
-        <v>565.5514964631899</v>
+        <v>222.9414315330279</v>
       </c>
       <c r="D28" t="n">
-        <v>565.5514964631899</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>434.4375921661942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6418,16 +6420,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1181.450483200945</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W28" t="n">
-        <v>932.1777295445045</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X28" t="n">
-        <v>760.4902842397404</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y28" t="n">
-        <v>565.5514964631899</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489457</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6491,10 +6493,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
         <v>3816.98692220683</v>
@@ -6549,19 +6551,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>365.5313929851185</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="C31" t="n">
-        <v>365.5313929851185</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D31" t="n">
-        <v>365.5313929851185</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E31" t="n">
-        <v>365.5313929851185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1673.282752128085</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1420.281515508894</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1176.192681283101</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W31" t="n">
-        <v>926.9199276266603</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X31" t="n">
-        <v>718.3729763210285</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.434188544478</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6698,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6725,7 +6727,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
         <v>4364.291146941468</v>
@@ -6734,7 +6736,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
         <v>3463.023532176683</v>
@@ -6777,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>947.1447271725442</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>947.1447271725442</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>887.4500370879764</v>
+        <v>284.6031562365284</v>
       </c>
       <c r="C34" t="n">
-        <v>746.1535754843777</v>
+        <v>284.6031562365284</v>
       </c>
       <c r="D34" t="n">
-        <v>616.4558416419726</v>
+        <v>154.9054223941232</v>
       </c>
       <c r="E34" t="n">
-        <v>485.3419373449769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6859,13 +6861,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N34" t="n">
         <v>1237.898275478248</v>
@@ -6880,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T34" t="n">
-        <v>1699.679355498665</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U34" t="n">
-        <v>1699.679355498665</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V34" t="n">
-        <v>1698.111325385959</v>
+        <v>937.3616489751516</v>
       </c>
       <c r="W34" t="n">
-        <v>1448.838571729518</v>
+        <v>688.0888953187108</v>
       </c>
       <c r="X34" t="n">
-        <v>1240.291620423887</v>
+        <v>479.5419440130789</v>
       </c>
       <c r="Y34" t="n">
-        <v>1045.352832647336</v>
+        <v>284.6031562365284</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489456</v>
+        <v>809.8415093489444</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388646</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
@@ -6944,43 +6946,43 @@
         <v>1598.180070079655</v>
       </c>
       <c r="M35" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035662</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7005,37 +7007,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1814.712936990346</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>637.9417588857128</v>
+        <v>371.9936395339929</v>
       </c>
       <c r="C37" t="n">
-        <v>496.6452972821141</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="D37" t="n">
-        <v>496.6452972821141</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="E37" t="n">
-        <v>365.5313929851185</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049081</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362208</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253562</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749243</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672486</v>
       </c>
       <c r="Q37" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1800.798405294156</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.203548008751</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.203548008749</v>
+        <v>1434.451719820138</v>
       </c>
       <c r="U37" t="n">
-        <v>1391.202311389558</v>
+        <v>1231.804974281218</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.113477163765</v>
+        <v>987.7161400554246</v>
       </c>
       <c r="W37" t="n">
-        <v>1041.427497967895</v>
+        <v>738.443386398984</v>
       </c>
       <c r="X37" t="n">
-        <v>832.8805466622633</v>
+        <v>529.8964350933524</v>
       </c>
       <c r="Y37" t="n">
-        <v>637.9417588857128</v>
+        <v>529.8964350933524</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>743.6277380815826</v>
+        <v>458.5427745949822</v>
       </c>
       <c r="C40" t="n">
-        <v>743.6277380815826</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="D40" t="n">
-        <v>613.9300042391775</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="E40" t="n">
-        <v>571.8910724059659</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512421</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H40" t="n">
         <v>179.7928327516118</v>
@@ -7369,13 +7371,13 @@
         <v>1147.113477163765</v>
       </c>
       <c r="W40" t="n">
-        <v>1147.113477163765</v>
+        <v>1019.931309236524</v>
       </c>
       <c r="X40" t="n">
-        <v>938.5665258581331</v>
+        <v>811.3843579308923</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.6277380815826</v>
+        <v>616.4455701543418</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2204.58952892808</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C41" t="n">
-        <v>1794.46493824135</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D41" t="n">
-        <v>1390.00100833441</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E41" t="n">
-        <v>975.6607928513072</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F41" t="n">
-        <v>554.6303808049947</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G41" t="n">
-        <v>145.9020966978269</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>67.31169872615997</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>321.4971701939143</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>830.7368197756649</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>830.7368197756649</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1607.055410767419</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2360.236427406037</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3003.867283823142</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3003.867283823142</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3325.028290618434</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3365.584936307999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3365.584936307999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3365.584936307999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>3365.584936307999</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V41" t="n">
-        <v>3015.747381644479</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W41" t="n">
-        <v>3015.747381644479</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X41" t="n">
-        <v>3015.747381644479</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.810708592569</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>746.1425406126943</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>612.1474693616401</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>495.2503115810325</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>374.7574955733605</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>265.7976157558651</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>158.8075030702038</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>88.0602901059198</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>67.31169872615997</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>900.2939704623897</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>1380.284284668136</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.24137521403</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2084.24137521403</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2084.24137521403</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2005.810884690969</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1846.469020877977</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1649.118210016196</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1435.40668300923</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1222.173514745558</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1045.847532884451</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>886.445573248281</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>652.0486232982257</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="C43" t="n">
-        <v>652.0486232982257</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D43" t="n">
-        <v>652.0486232982257</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E43" t="n">
-        <v>652.0486232982257</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>500.5155908908338</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>333.2651998163772</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>183.6577446218338</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>81.39424813137049</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>235.9465758536085</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>495.843676133669</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>785.1077325741624</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.946514968413</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1325.507125294887</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1531.182565544499</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1596.71059534701</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1596.71059534701</v>
+        <v>1618.689520728736</v>
       </c>
       <c r="S43" t="n">
-        <v>1596.71059534701</v>
+        <v>1618.689520728736</v>
       </c>
       <c r="T43" t="n">
-        <v>1357.161856323712</v>
+        <v>1618.689520728736</v>
       </c>
       <c r="U43" t="n">
-        <v>1357.161856323712</v>
+        <v>1335.891373274861</v>
       </c>
       <c r="V43" t="n">
-        <v>1357.161856323712</v>
+        <v>1062.005628214383</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.092191832587</v>
+        <v>782.9359637232569</v>
       </c>
       <c r="X43" t="n">
-        <v>839.7483296922701</v>
+        <v>782.9359637232569</v>
       </c>
       <c r="Y43" t="n">
-        <v>839.7483296922701</v>
+        <v>558.2002651120216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2125.999130956413</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>1715.874540269683</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D44" t="n">
-        <v>1311.410610362744</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>897.0703948796403</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>476.0399828333278</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>321.4971701939143</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>859.6566713029538</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.248071115192</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2348.566662106946</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3101.747678745564</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3101.747678745564</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3101.747678745564</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3325.028290618434</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3365.584936307999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3320.917284537644</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3320.917284537644</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3320.917284537644</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3320.917284537644</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2937.156983672813</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2937.156983672813</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2536.220310620903</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>746.1425406126943</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>612.1474693616401</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>495.2503115810325</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>374.7574955733605</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>265.7976157558651</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>158.8075030702038</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>88.0602901059198</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>260.1245562887932</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>715.930812554092</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>715.930812554092</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>1280.81862284043</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N45" t="n">
-        <v>2113.80089457666</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.80089457666</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P45" t="n">
-        <v>2113.80089457666</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q45" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2113.80089457666</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2005.810884690969</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1846.469020877977</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1649.118210016196</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1435.40668300923</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1222.173514745558</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1045.847532884451</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>886.445573248281</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>556.9501822383943</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="C46" t="n">
-        <v>515.5392615856991</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D46" t="n">
-        <v>515.5392615856991</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E46" t="n">
-        <v>515.5392615856991</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9081356962904</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>183.6577446218338</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>183.6577446218338</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>67.31169872615997</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>81.39424813137049</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>235.9465758536085</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>495.843676133669</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>785.1077325741624</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.946514968413</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1325.507125294887</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1531.182565544499</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1596.71059534701</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1596.71059534701</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1596.71059534701</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1357.161856323712</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1074.363708869837</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V46" t="n">
-        <v>1074.363708869837</v>
+        <v>1317.465401913064</v>
       </c>
       <c r="W46" t="n">
-        <v>795.2940443787109</v>
+        <v>1038.395737421939</v>
       </c>
       <c r="X46" t="n">
-        <v>556.9501822383943</v>
+        <v>1038.395737421939</v>
       </c>
       <c r="Y46" t="n">
-        <v>556.9501822383943</v>
+        <v>1038.395737421939</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>344.8822479603621</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666179</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>519.9921247603925</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0668064756412</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>445.9785625348323</v>
+        <v>482.9056167883885</v>
       </c>
       <c r="L3" t="n">
-        <v>446.2673035610659</v>
+        <v>344.8797316095394</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>484.6441177421905</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>206.4630870275083</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>426.6124979218854</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>402.2824097071477</v>
+        <v>266.9965351298663</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,10 +8458,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M8" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8468,13 +8470,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8534,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8482690683349</v>
+        <v>66.8161563599358</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8550,7 +8552,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8699,19 +8701,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>726.8243001017722</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>898.9605178154169</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>227.9557854628096</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>356.536084765247</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>376.0508632105896</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>898.9605178154169</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>613.6913745331453</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920609</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>855.3505773129942</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9401,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389119</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9480,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>743.5567912259809</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9653,13 +9655,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -9726,19 +9728,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>584.8995157759063</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>711.6624984671718</v>
       </c>
       <c r="O27" t="n">
-        <v>706.040592805458</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
@@ -10206,13 +10208,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>498.0116489728624</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>337.0699683392704</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>115.3859917360771</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780074</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>355.137504553472</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10911,19 +10913,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>695.4234724815018</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
-        <v>603.5198740992279</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11075,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11142,13 +11144,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>898.9605178154171</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>538.0320946116753</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11160,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>315.5697759879096</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>628.1580315023956</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>894.5896274707496</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>137.3884759760079</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
         <v>139.8834969875626</v>
@@ -23422,19 +23424,19 @@
         <v>128.400756503981</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>76.76072710101488</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.8385649197013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9792236855986</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967469</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041766</v>
@@ -23668,10 +23670,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.1603759863082</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>99.81266623873744</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
         <v>139.8834969875626</v>
@@ -23896,7 +23898,7 @@
         <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041766</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>52.56154735369725</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>26.04054500395691</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>106.7614006308807</v>
       </c>
       <c r="C22" t="n">
-        <v>106.7614006308807</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>128.400756503981</v>
@@ -24145,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.56154735369714</v>
+        <v>106.7614006308807</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>128.400756503981</v>
@@ -24382,7 +24384,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>95.2786601473</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>36.49091094085904</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>80.24039828114135</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>26.49276385730241</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.75765779756033</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>240.0955960719567</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.4007565039809</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037896</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>49.85094616946751</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>142.1509067159653</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>88.18422273914629</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>120.869679871908</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>222.4997066824608</v>
       </c>
       <c r="H41" t="n">
-        <v>229.9949184066089</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>12.96711254719662</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>80.50644829444514</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>89.7072892011892</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>128.3856272677324</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>206.1747187685135</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>545254.4510982404</v>
+        <v>547484.2483742784</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>545254.4510982404</v>
+        <v>553219.7309601114</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472595.001747362</v>
+        <v>562969.4871207714</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472595.001747362</v>
+        <v>562969.4871207714</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562969.4871207713</v>
+        <v>562969.4871207714</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562969.4871207713</v>
+        <v>562969.4871207714</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>432217.1783405824</v>
+        <v>522591.6637139919</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>432217.1783405825</v>
+        <v>522591.6637139918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635241.3328265819</v>
+        <v>635241.3328265824</v>
       </c>
       <c r="C2" t="n">
-        <v>635241.3328265819</v>
+        <v>635241.3328265822</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.3328265819</v>
+        <v>635241.3328265821</v>
       </c>
       <c r="E2" t="n">
-        <v>517982.4344134803</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="F2" t="n">
-        <v>517982.4344134802</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="I2" t="n">
         <v>615612.8085600277</v>
       </c>
       <c r="J2" t="n">
+        <v>615612.8085600276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615612.8085600276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="N2" t="n">
         <v>615612.8085600274</v>
       </c>
-      <c r="K2" t="n">
-        <v>615612.8085600276</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615612.808560028</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615612.8085600275</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615612.8085600275</v>
-      </c>
       <c r="O2" t="n">
-        <v>467184.5275468865</v>
+        <v>564814.9016934327</v>
       </c>
       <c r="P2" t="n">
-        <v>467184.5275468865</v>
+        <v>564814.9016934329</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130749.1700082319</v>
+        <v>143124.2752108464</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668833</v>
       </c>
       <c r="D3" t="n">
-        <v>40975.44889023116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118944.8614453713</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>88844.64920218491</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125680.2872860362</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24445.77426110966</v>
       </c>
       <c r="L3" t="n">
-        <v>33385.43390875801</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79578.97712643273</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230988.6024269557</v>
+        <v>223266.2113308337</v>
       </c>
       <c r="C4" t="n">
-        <v>230988.6024269556</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="D4" t="n">
         <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
-        <v>91260.28148437258</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="F4" t="n">
-        <v>91260.28148437258</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="G4" t="n">
         <v>104184.3863816103</v>
@@ -26436,7 +26438,7 @@
         <v>104184.3863816103</v>
       </c>
       <c r="I4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="J4" t="n">
         <v>104184.3863816102</v>
@@ -26448,16 +26450,16 @@
         <v>104184.3863816102</v>
       </c>
       <c r="M4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816104</v>
       </c>
       <c r="N4" t="n">
         <v>104184.3863816102</v>
       </c>
       <c r="O4" t="n">
-        <v>61450.25206750361</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>61450.2520675036</v>
+        <v>74374.35696474132</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881319</v>
+        <v>59594.05390742941</v>
       </c>
       <c r="C5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>53636.83756387307</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>53636.83756387307</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="H5" t="n">
         <v>73345.15677686482</v>
-      </c>
-      <c r="H5" t="n">
-        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
         <v>73345.15677686484</v>
@@ -26506,10 +26508,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>51156.89103188158</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>51156.89103188158</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216154.6713825811</v>
+        <v>209256.7923774729</v>
       </c>
       <c r="C6" t="n">
-        <v>346903.8413908131</v>
+        <v>335783.1231137043</v>
       </c>
       <c r="D6" t="n">
-        <v>325494.1350901611</v>
+        <v>366469.5839803925</v>
       </c>
       <c r="E6" t="n">
-        <v>254140.4539198634</v>
+        <v>222354.3491210389</v>
       </c>
       <c r="F6" t="n">
-        <v>373085.3153652345</v>
+        <v>438083.2654015525</v>
       </c>
       <c r="G6" t="n">
-        <v>349238.6161993677</v>
+        <v>438083.2654015525</v>
       </c>
       <c r="H6" t="n">
+        <v>438083.2654015525</v>
+      </c>
+      <c r="I6" t="n">
         <v>438083.2654015526</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>302741.2359323989</v>
+      </c>
+      <c r="K6" t="n">
+        <v>413637.491140443</v>
+      </c>
+      <c r="L6" t="n">
         <v>438083.2654015527</v>
       </c>
-      <c r="J6" t="n">
-        <v>312402.9781155161</v>
-      </c>
-      <c r="K6" t="n">
-        <v>438083.2654015525</v>
-      </c>
-      <c r="L6" t="n">
-        <v>404697.831492795</v>
-      </c>
       <c r="M6" t="n">
-        <v>358504.2882751197</v>
+        <v>277724.8149008698</v>
       </c>
       <c r="N6" t="n">
         <v>438083.2654015524</v>
       </c>
       <c r="O6" t="n">
-        <v>354577.3844475014</v>
+        <v>419575.3344838181</v>
       </c>
       <c r="P6" t="n">
-        <v>354577.3844475013</v>
+        <v>419575.3344838183</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
+        <v>29.49894172633795</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.49894172633815</v>
+      </c>
+      <c r="N2" t="n">
         <v>29.498941726338</v>
-      </c>
-      <c r="M2" t="n">
-        <v>29.49894172633799</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.49894172633799</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="C4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>841.3962340769995</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>841.3962340769995</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>841.3962340769997</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>841.3962340769997</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625246</v>
       </c>
       <c r="D4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>319.3326637069739</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>324.1499870557852</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.152779750217</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625246</v>
       </c>
       <c r="L4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>319.3326637069739</v>
+        <v>643.482650762759</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625246</v>
       </c>
       <c r="L4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>319.3326637069739</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>324.1499870557852</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.96618811762767</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.87056502964566</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>72.29635103004989</v>
       </c>
       <c r="E2" t="n">
-        <v>20.04403357805535</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>297.6503409057623</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27506,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>36.30171687279432</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27543,19 +27545,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>23.12472639190884</v>
+        <v>129.330159213599</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.55603611768242</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.04403357805535</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26.66732817563241</v>
-      </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>11.48287933845657</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.7822624579606</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27752,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27792,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>227.3837441205272</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>100.214843983191</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27913,10 +27915,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>345.5948735805606</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.75949205792773</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>75.20277457702075</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>36.62568784537227</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28065,7 +28067,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633691</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633708</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633815</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="41">
@@ -34699,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>390.1527797502169</v>
+        <v>255.745858287145</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>390.1527797502169</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="L3" t="n">
-        <v>390.1527797502169</v>
+        <v>288.7652077986903</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>149.7704685226696</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>333.4227222961023</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>344.5309307071477</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M8" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35188,13 +35190,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>117.7337452574859</v>
+        <v>10.70163254908676</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35270,7 +35272,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35419,19 +35421,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>633.9120093451529</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>841.3962340769995</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>174.7623920690596</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K13" t="n">
         <v>185.612404072033</v>
@@ -35586,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>266.5022803660949</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>319.9363393997406</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>841.3962340769995</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K16" t="n">
         <v>185.612404072033</v>
@@ -35823,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733737</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>802.1571839192443</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K19" t="n">
         <v>185.612404072033</v>
@@ -36060,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656948</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>685.9925074875634</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K22" t="n">
         <v>185.612404072033</v>
@@ -36297,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>530.6398807731025</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K25" t="n">
         <v>185.612404072033</v>
@@ -36534,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>658.4691050734218</v>
       </c>
       <c r="O27" t="n">
-        <v>648.289113805458</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
@@ -36926,13 +36928,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>443.7520139700587</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>283.8765749455204</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.63451273607708</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M34" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209619</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.4448860486332</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533867</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.6124040720331</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415509</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.684857322796</v>
       </c>
       <c r="N37" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995444</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978343</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>637.6719934815018</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
-        <v>514.3834844260108</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37795,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>841.3962340769997</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>484.8387012179254</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.5359715887575</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>570.5937477639782</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>841.3962340769997</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3004839.663972002</v>
+        <v>3004113.065100778</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330304</v>
+        <v>5851605.615330301</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124473</v>
+        <v>864456.6793124467</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6428244.121881662</v>
+        <v>6428244.121881663</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>122.3264121698356</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778201</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.60839291403994</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362470372</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.97154776676477</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,7 +876,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>98.41262563052113</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>25.62397643569308</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.005365717641</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1034,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105128</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.273497641932</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1150,10 +1150,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>165.0151217447637</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815331</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019342</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>56.72514580316172</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
@@ -1548,7 +1548,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>107.7276828060605</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>206.4614817925754</v>
@@ -1621,13 +1621,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397592</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
         <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>224.9909450967469</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905476</v>
       </c>
       <c r="W14" t="n">
         <v>350.4237561298451</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>37.98872967867279</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>106.648815553838</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>88.04314577169825</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2067,7 +2067,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4209367886185</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2101,7 +2101,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288521</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>88.04314577169826</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2326,7 +2326,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019344</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2338,7 +2338,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288521</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
         <v>139.8834969875626</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2538,7 +2538,7 @@
         <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>194.939674904012</v>
       </c>
       <c r="X25" t="n">
         <v>206.4614817925754</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F26" t="n">
         <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905476</v>
       </c>
       <c r="W26" t="n">
         <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
         <v>367.4283645950528</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646595</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -2769,16 +2769,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642131</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -3006,16 +3006,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975962</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646543</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.9210494150164</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415064</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535244</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
-        <v>370.9203488815319</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995111</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G35" t="n">
-        <v>375.142059539758</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.300470672221</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975942</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.429322727502</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862716</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.9909450967468</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298449</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263988</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950526</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037658</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875625</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.7521031658617</v>
       </c>
       <c r="G37" t="n">
-        <v>136.0789454373739</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.9210494150162</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125507</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067268</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835314</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835351</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198762</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925753</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>191.2929015134995</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479684</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3900,13 +3900,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.913542846909213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>212.7297561580428</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>69.16759473071001</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>64.97216884135977</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.098156350603</v>
+        <v>190.129644596992</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.013969704277</v>
+        <v>66.56761210220854</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994082</v>
+        <v>66.14408623567314</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163049</v>
+        <v>55.84427479297391</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699925</v>
+        <v>38.85426678706552</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030177</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030177</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030185</v>
+        <v>34.16638672030177</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3518581880562</v>
+        <v>288.3518581880561</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923297</v>
+        <v>500.9836122027628</v>
       </c>
       <c r="L2" t="n">
-        <v>964.349293556065</v>
+        <v>923.7926478664972</v>
       </c>
       <c r="M2" t="n">
-        <v>964.349293556065</v>
+        <v>923.7926478664972</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.1583292198</v>
+        <v>923.7926478664972</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.1583292198</v>
+        <v>923.7926478664972</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.1583292198</v>
+        <v>1346.601683530232</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015092</v>
+        <v>1667.762690325524</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015092</v>
+        <v>1708.319336015089</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015092</v>
+        <v>1573.038260809189</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015092</v>
+        <v>1350.831776756048</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015092</v>
+        <v>1350.831776756048</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015092</v>
+        <v>1000.994222092529</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015092</v>
+        <v>1000.994222092529</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015092</v>
+        <v>600.3508242614814</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.319336015092</v>
+        <v>600.3508242614814</v>
       </c>
     </row>
     <row r="3">
@@ -4388,67 +4388,67 @@
         <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>579.0021573557818</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>462.1049995751742</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675024</v>
+        <v>341.6121835675023</v>
       </c>
       <c r="F3" t="n">
         <v>232.6523037500069</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>125.6621910643455</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006167</v>
+        <v>54.9149781000616</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030185</v>
+        <v>34.16638672030177</v>
       </c>
       <c r="J3" t="n">
-        <v>226.9792442829351</v>
+        <v>226.979244282935</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466704</v>
+        <v>649.7882799466694</v>
       </c>
       <c r="L3" t="n">
-        <v>935.6658356673738</v>
+        <v>649.7882799466694</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.474871331109</v>
+        <v>649.7882799466694</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.474871331109</v>
+        <v>649.7882799466694</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331109</v>
+        <v>906.1063163047406</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331109</v>
+        <v>1328.915351968475</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015092</v>
+        <v>1678.759816652459</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015092</v>
+        <v>1708.319336015089</v>
       </c>
       <c r="S3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015089</v>
       </c>
       <c r="T3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015089</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.64691614923</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1225.935389142264</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>1012.702220878593</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
         <v>1012.702220878593</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44067739380162</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="C4" t="n">
-        <v>64.44067739380162</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44067739380162</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030185</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030185</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030185</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030185</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030185</v>
+        <v>34.16638672030177</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551237</v>
+        <v>48.24893612551229</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477504</v>
+        <v>202.8012638477503</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278109</v>
+        <v>462.6983641278108</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683042</v>
+        <v>751.9624205683041</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.361813289029</v>
+        <v>1292.361813289028</v>
       </c>
       <c r="P4" t="n">
         <v>1498.037253538641</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1324.016544317854</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192883</v>
+        <v>1041.218396863978</v>
       </c>
       <c r="V4" t="n">
-        <v>769.5539104192883</v>
+        <v>767.3326518034999</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4842459281626</v>
+        <v>488.2629873123742</v>
       </c>
       <c r="X4" t="n">
-        <v>252.140383787846</v>
+        <v>249.9191251720576</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.140383787846</v>
+        <v>150.5124326159756</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>570.6426643811657</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>836.1547617733357</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>427.4264776661679</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>116.5179802938859</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>367.429305553252</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="D7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8616862216745</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3531027449756</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>327.2000148507626</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>326.7764889842272</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>316.476677541528</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>299.4866695356196</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>294.7987894688558</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>960.0055634924552</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5129,16 +5129,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251427</v>
+        <v>973.999172148965</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251427</v>
+        <v>832.7027105453665</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251427</v>
+        <v>703.0049767029614</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251427</v>
+        <v>571.8910724059657</v>
       </c>
       <c r="F13" t="n">
         <v>437.0568573512419</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5232,19 +5232,19 @@
         <v>1644.20354800875</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389559</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163766</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073248</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016931</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251427</v>
+        <v>1131.901967708324</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G14" t="n">
         <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5314,16 +5314,16 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5363,10 +5363,10 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.8998387150689</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114703</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114703</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114703</v>
+        <v>403.9038472059999</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>269.0696321512761</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>131.6161519115044</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>131.6161519115044</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5478,10 +5478,10 @@
         <v>743.5647028086273</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916193</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.8998387150689</v>
+        <v>535.0177515029956</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133289</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281244</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5545,22 +5545,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176681</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.9067370486074</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C19" t="n">
-        <v>310.9067370486074</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486074</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516118</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516118</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751525</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X19" t="n">
-        <v>505.8455248251578</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.9067370486074</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388647</v>
@@ -5755,25 +5755,25 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267415</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079653</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R20" t="n">
         <v>4662.184884531139</v>
@@ -5785,7 +5785,7 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V20" t="n">
         <v>3816.986922206829</v>
@@ -5831,28 +5831,28 @@
         <v>93.24369769062278</v>
       </c>
       <c r="J21" t="n">
-        <v>93.24369769062278</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.24369769062278</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.24369769062278</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.5401592942214</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C22" t="n">
-        <v>93.24369769062278</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="D22" t="n">
-        <v>93.24369769062278</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="E22" t="n">
-        <v>93.24369769062278</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="F22" t="n">
-        <v>93.24369769062278</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="G22" t="n">
         <v>93.24369769062278</v>
@@ -5916,10 +5916,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478249</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751525</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130801</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365297</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="23">
@@ -5983,49 +5983,49 @@
         <v>430.9101360764619</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583754</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267415</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079653</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6059,13 +6059,13 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H24" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J24" t="n">
         <v>286.056555253256</v>
@@ -6074,19 +6074,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6126,25 +6126,25 @@
         <v>234.5401592942214</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J25" t="n">
         <v>136.530199404908</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751525</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187118</v>
+        <v>795.928693935763</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130801</v>
+        <v>587.3817426301313</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365297</v>
+        <v>392.4429548535809</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6262,16 +6262,16 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.9414315330279</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C28" t="n">
-        <v>222.9414315330279</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
         <v>1761.542230672484</v>
@@ -6411,25 +6411,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365284</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365284</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941232</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6885,25 +6885,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V34" t="n">
-        <v>937.3616489751516</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187108</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130789</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365284</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489444</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388646</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
@@ -6946,22 +6946,22 @@
         <v>1598.180070079655</v>
       </c>
       <c r="M35" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
         <v>4556.700720159924</v>
@@ -6970,10 +6970,10 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035662</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
         <v>3463.023532176682</v>
@@ -7007,34 +7007,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.24369769062278</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339929</v>
+        <v>582.8598596782838</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303944</v>
+        <v>441.5633980746852</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303944</v>
+        <v>311.8656642322801</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303944</v>
+        <v>311.8656642322801</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303944</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="G37" t="n">
-        <v>93.24369769062278</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="H37" t="n">
-        <v>93.24369769062278</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I37" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049081</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362208</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253562</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749243</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
         <v>1237.898275478249</v>
@@ -7113,34 +7113,34 @@
         <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
-        <v>1761.542230672486</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q37" t="n">
-        <v>1856.274212784071</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294156</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008751</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820138</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281218</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554246</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="W37" t="n">
-        <v>738.443386398984</v>
+        <v>1144.248394319825</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933524</v>
+        <v>935.7014430141936</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933524</v>
+        <v>740.7626552376432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>636.5255884311221</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>495.2291268275235</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>1043.701137646922</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>794.4283839904815</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>794.4283839904815</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>794.4283839904815</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.319620822223</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.855690915283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.51547543218</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>674.4850633858673</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.5005587179772</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C43" t="n">
-        <v>370.5005587179772</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D43" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.689520728736</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.891373274861</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1062.005628214383</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>782.9359637232569</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X43" t="n">
-        <v>782.9359637232569</v>
+        <v>611.5314212000407</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.2002651120216</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.6960310278942</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7839,19 +7839,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.465401913064</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.395737421939</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.395737421939</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.395737421939</v>
+        <v>322.6045996714603</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>344.8822479603621</v>
+        <v>303.9159391830219</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666179</v>
+        <v>522.565232066617</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603925</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>520.7291972846563</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883885</v>
+        <v>482.9056167883875</v>
       </c>
       <c r="L3" t="n">
-        <v>344.8797316095394</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421905</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>316.6585864323952</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065759</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,7 +8300,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>235.5014795744224</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,7 +8309,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8473,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>70.59911775623726</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8777,19 +8777,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>388.1423516779259</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389119</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158864</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9655,7 +9655,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,10 +9734,10 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9956,7 +9956,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
@@ -9965,19 +9965,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -10202,16 +10202,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
@@ -10436,22 +10436,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780074</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>142.7435414469386</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
         <v>128.400756503981</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>47.69491403170625</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873744</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>139.8834969875626</v>
@@ -23898,19 +23898,19 @@
         <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>48.03579966567571</v>
       </c>
       <c r="H19" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.04054500395691</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308807</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
         <v>128.400756503981</v>
@@ -24141,13 +24141,13 @@
         <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>48.0357996656757</v>
       </c>
       <c r="H22" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308807</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>51.84035121586436</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.2786601473</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -24621,7 +24621,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114135</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
@@ -24858,7 +24858,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>68.75765779756033</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037916</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039809</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540256</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041765</v>
+        <v>2.733769738314948</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037896</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.85094616946751</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>50.3550443700357</v>
       </c>
       <c r="W40" t="n">
-        <v>120.869679871908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50644829444514</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>23.23066736087068</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>116.6551145993939</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>206.1747187685135</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>547484.2483742784</v>
+        <v>547484.2483742783</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562969.4871207714</v>
+        <v>562969.4871207713</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>562969.4871207713</v>
+        <v>562969.4871207714</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562969.4871207714</v>
+        <v>562969.4871207713</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522591.6637139919</v>
+        <v>522591.6637139918</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>635241.3328265818</v>
+      </c>
+      <c r="C2" t="n">
+        <v>635241.3328265821</v>
+      </c>
+      <c r="D2" t="n">
         <v>635241.3328265824</v>
       </c>
-      <c r="C2" t="n">
-        <v>635241.3328265822</v>
-      </c>
-      <c r="D2" t="n">
-        <v>635241.3328265821</v>
-      </c>
       <c r="E2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600277</v>
       </c>
       <c r="F2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600275</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="I2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="J2" t="n">
         <v>615612.8085600276</v>
@@ -26346,13 +26346,13 @@
         <v>615612.8085600276</v>
       </c>
       <c r="M2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="N2" t="n">
-        <v>615612.8085600274</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="O2" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934331</v>
       </c>
       <c r="P2" t="n">
         <v>564814.9016934329</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108464</v>
+        <v>143124.2752108461</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668833</v>
+        <v>30686.46086668866</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691536</v>
+        <v>135342.0294691535</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110966</v>
+        <v>24445.77426110992</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223266.2113308337</v>
+        <v>223266.2113308339</v>
       </c>
       <c r="C4" t="n">
         <v>203402.6837676921</v>
@@ -26441,25 +26441,25 @@
         <v>104184.3863816103</v>
       </c>
       <c r="J4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="K4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="L4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="M4" t="n">
-        <v>104184.3863816104</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="N4" t="n">
-        <v>104184.3863816102</v>
+        <v>104184.3863816103</v>
       </c>
       <c r="O4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742941</v>
+        <v>59594.05390742935</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26490,22 +26490,22 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
+        <v>73345.15677686482</v>
+      </c>
+      <c r="J5" t="n">
         <v>73345.15677686484</v>
       </c>
-      <c r="J5" t="n">
-        <v>73345.15677686482</v>
-      </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209256.7923774729</v>
+        <v>209256.7923774724</v>
       </c>
       <c r="C6" t="n">
-        <v>335783.1231137043</v>
+        <v>335783.1231137039</v>
       </c>
       <c r="D6" t="n">
-        <v>366469.5839803925</v>
+        <v>366469.5839803927</v>
       </c>
       <c r="E6" t="n">
-        <v>222354.3491210389</v>
+        <v>222304.0195716376</v>
       </c>
       <c r="F6" t="n">
-        <v>438083.2654015525</v>
+        <v>438032.935852151</v>
       </c>
       <c r="G6" t="n">
-        <v>438083.2654015525</v>
+        <v>438032.9358521513</v>
       </c>
       <c r="H6" t="n">
-        <v>438083.2654015525</v>
+        <v>438032.9358521513</v>
       </c>
       <c r="I6" t="n">
-        <v>438083.2654015526</v>
+        <v>438032.9358521513</v>
       </c>
       <c r="J6" t="n">
-        <v>302741.2359323989</v>
+        <v>302690.9063829976</v>
       </c>
       <c r="K6" t="n">
-        <v>413637.491140443</v>
+        <v>413587.1615910413</v>
       </c>
       <c r="L6" t="n">
-        <v>438083.2654015527</v>
+        <v>438032.9358521511</v>
       </c>
       <c r="M6" t="n">
-        <v>277724.8149008698</v>
+        <v>277674.4853514684</v>
       </c>
       <c r="N6" t="n">
-        <v>438083.2654015524</v>
+        <v>438032.9358521511</v>
       </c>
       <c r="O6" t="n">
-        <v>419575.3344838181</v>
+        <v>419394.7538911693</v>
       </c>
       <c r="P6" t="n">
-        <v>419575.3344838183</v>
+        <v>419394.7538911692</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037731</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037731</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625246</v>
+        <v>94.98373636625347</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037731</v>
+        <v>427.0798340037725</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625246</v>
+        <v>94.98373636625347</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.482650762759</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037731</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625246</v>
+        <v>94.98373636625347</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>283.696932610027</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>72.29635103004989</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.30171687279432</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284597</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27545,7 +27545,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>129.330159213599</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>124.0757159946018</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>380.4949914321515</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>11.48287933845657</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.874559219806315</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27827,10 +27827,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.214843983191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>142.7842906537955</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>181.0244246222284</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633788</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633804</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633815</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633693</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>255.745858287145</v>
+        <v>214.7795495098048</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037731</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037731</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037731</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986903</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037731</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>258.9071074323952</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037721</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,16 +35020,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>179.3869557635733</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>209.2450561298663</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533857</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K13" t="n">
         <v>185.612404072033</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533857</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K16" t="n">
         <v>185.612404072033</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>334.9489582841759</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533857</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K19" t="n">
         <v>185.612404072033</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656948</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733737</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533857</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K22" t="n">
         <v>185.612404072033</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825784</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36375,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533857</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K25" t="n">
         <v>185.612404072033</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
@@ -37156,22 +37156,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978323</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209619</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533867</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720331</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415509</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.684857322796</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
-        <v>313.1744794983081</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995444</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2519116754415</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978343</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
